--- a/outputs/results/cv/Circ2Disease_results.xlsx
+++ b/outputs/results/cv/Circ2Disease_results.xlsx
@@ -394,19 +394,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8666666666666665</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9391289437585734</v>
+        <v>0.9687928669410152</v>
       </c>
     </row>
     <row r="3">
@@ -417,19 +417,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8598130841121495</v>
+        <v>0.8224299065420561</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.8347826086956522</v>
       </c>
       <c r="E3" t="n">
-        <v>0.819672131147541</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9538784067085954</v>
+        <v>0.9203354297693921</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8785046728971962</v>
+        <v>0.7757009345794392</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8785046728971964</v>
+        <v>0.8095238095238096</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8867924528301887</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9479385045422781</v>
+        <v>0.9261006289308176</v>
       </c>
     </row>
     <row r="5">
@@ -463,19 +463,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8785046728971962</v>
+        <v>0.8411214953271028</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8828828828828829</v>
+        <v>0.8521739130434782</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8448275862068966</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="F5" t="n">
         <v>0.9245283018867925</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9696016771488469</v>
+        <v>0.9344863731656186</v>
       </c>
     </row>
     <row r="6">
@@ -486,19 +486,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8691588785046729</v>
+        <v>0.897196261682243</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.9043478260869565</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9751921733053809</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="7">
@@ -512,27 +512,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.868 +- 0.010</t>
+          <t>0.8506 +- 0.051</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.871 +- 0.009</t>
+          <t>0.8639 +- 0.041</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.855 +- 0.051</t>
+          <t>0.8038 +- 0.062</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.895 +- 0.059</t>
+          <t>0.9367 +- 0.030</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.957 +- 0.013</t>
+          <t>0.9425 +- 0.020</t>
         </is>
       </c>
     </row>
